--- a/out/test/Figori_algorithm_9.xlsx
+++ b/out/test/Figori_algorithm_9.xlsx
@@ -392,1674 +392,1674 @@
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>0.70794999999999997</v>
+        <v>0.7087</v>
       </c>
       <c r="B1">
-        <v>0.68815000000000004</v>
+        <v>0.45679999999999998</v>
       </c>
       <c r="C1">
-        <v>0.45995000000000003</v>
+        <v>0.70950000000000002</v>
       </c>
       <c r="D1">
-        <v>0.68520000000000003</v>
+        <v>0.71089999999999998</v>
       </c>
       <c r="E1">
-        <v>0.69140000000000001</v>
+        <v>0.69504999999999995</v>
       </c>
       <c r="F1">
+        <v>0.6855</v>
+      </c>
+      <c r="G1">
+        <v>0.68715000000000004</v>
+      </c>
+      <c r="H1">
+        <v>0.45805000000000001</v>
+      </c>
+      <c r="I1">
+        <v>0.69045000000000001</v>
+      </c>
+      <c r="J1">
+        <v>0.69074999999999998</v>
+      </c>
+      <c r="K1">
+        <v>0.45569999999999999</v>
+      </c>
+      <c r="L1">
+        <v>0.69330000000000003</v>
+      </c>
+      <c r="M1">
         <v>0.68830000000000002</v>
       </c>
-      <c r="G1">
-        <v>0.45155000000000001</v>
-      </c>
-      <c r="H1">
-        <v>0.71155000000000002</v>
-      </c>
-      <c r="I1">
-        <v>0.71099999999999997</v>
-      </c>
-      <c r="J1">
-        <v>0.6875</v>
-      </c>
-      <c r="K1">
-        <v>0.45345000000000002</v>
-      </c>
-      <c r="L1">
-        <v>0.69064999999999999</v>
-      </c>
-      <c r="M1">
-        <v>0.68874999999999997</v>
-      </c>
       <c r="N1">
-        <v>0.45345000000000002</v>
+        <v>0.69640000000000002</v>
       </c>
       <c r="O1">
-        <v>0.70740000000000003</v>
+        <v>0.68920000000000003</v>
       </c>
       <c r="P1">
-        <v>0.68425000000000002</v>
+        <v>0.68774999999999997</v>
       </c>
       <c r="Q1">
-        <v>0.70774999999999999</v>
+        <v>0.69364999999999999</v>
       </c>
       <c r="R1">
-        <v>0.69245000000000001</v>
+        <v>0.70125000000000004</v>
       </c>
       <c r="S1">
-        <v>0.45765</v>
+        <v>0.70594999999999997</v>
       </c>
       <c r="T1">
-        <v>0.68574999999999997</v>
+        <v>0.68920000000000003</v>
       </c>
       <c r="U1">
-        <v>0.69799999999999995</v>
+        <v>0.70860000000000001</v>
       </c>
       <c r="V1">
-        <v>0.68620000000000003</v>
+        <v>0.68589999999999995</v>
       </c>
       <c r="W1">
-        <v>0.68420000000000003</v>
+        <v>0.70835000000000004</v>
       </c>
       <c r="X1">
-        <v>0.68594999999999995</v>
+        <v>0.70799999999999996</v>
       </c>
       <c r="Y1">
-        <v>0.6996</v>
+        <v>0.4526</v>
       </c>
       <c r="Z1">
-        <v>0.70884999999999998</v>
+        <v>0.71299999999999997</v>
       </c>
       <c r="AA1">
-        <v>0.68869999999999998</v>
+        <v>0.70009999999999994</v>
       </c>
       <c r="AB1">
-        <v>0.71025000000000005</v>
+        <v>0.6956</v>
       </c>
       <c r="AC1">
-        <v>0.69910000000000005</v>
+        <v>0.70509999999999995</v>
       </c>
       <c r="AD1">
-        <v>0.69899999999999995</v>
+        <v>0.69189999999999996</v>
       </c>
       <c r="AE1">
-        <v>0.70840000000000003</v>
+        <v>0.69330000000000003</v>
       </c>
       <c r="AF1">
-        <v>0.45484999999999998</v>
+        <v>0.45779999999999998</v>
       </c>
       <c r="AG1">
-        <v>0.68884999999999996</v>
+        <v>0.67949999999999999</v>
       </c>
       <c r="AH1">
+        <v>0.71184999999999998</v>
+      </c>
+      <c r="AI1">
+        <v>0.45405000000000001</v>
+      </c>
+      <c r="AJ1">
+        <v>0.69105000000000005</v>
+      </c>
+      <c r="AK1">
+        <v>0.69015000000000004</v>
+      </c>
+      <c r="AL1">
         <v>0.68964999999999999</v>
       </c>
-      <c r="AI1">
-        <v>0.6885</v>
-      </c>
-      <c r="AJ1">
-        <v>0.70625000000000004</v>
-      </c>
-      <c r="AK1">
-        <v>0.69335000000000002</v>
-      </c>
-      <c r="AL1">
-        <v>0.68730000000000002</v>
-      </c>
       <c r="AM1">
-        <v>0.68789999999999996</v>
+        <v>0.70925000000000005</v>
       </c>
       <c r="AN1">
-        <v>0.6784</v>
+        <v>0.69240000000000002</v>
       </c>
       <c r="AO1">
-        <v>0.69189999999999996</v>
+        <v>0.45655000000000001</v>
       </c>
       <c r="AP1">
-        <v>0.68674999999999997</v>
+        <v>0.69255</v>
       </c>
       <c r="AQ1">
-        <v>0.68205000000000005</v>
+        <v>0.71214999999999995</v>
       </c>
       <c r="AR1">
-        <v>0.6885</v>
+        <v>0.69199999999999995</v>
       </c>
       <c r="AS1">
-        <v>0.70774999999999999</v>
+        <v>0.70914999999999995</v>
       </c>
       <c r="AT1">
-        <v>0.69105000000000005</v>
+        <v>0.71055000000000001</v>
       </c>
       <c r="AU1">
-        <v>0.68559999999999999</v>
+        <v>0.45134999999999997</v>
       </c>
       <c r="AV1">
-        <v>0.45779999999999998</v>
+        <v>0.69325000000000003</v>
       </c>
       <c r="AW1">
-        <v>0.69359999999999999</v>
+        <v>0.45329999999999998</v>
       </c>
       <c r="AX1">
-        <v>0.71065</v>
+        <v>0.71250000000000002</v>
       </c>
     </row>
     <row r="2" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.68400000000000005</v>
+        <v>0.69589999999999996</v>
       </c>
       <c r="B2">
-        <v>0.67600000000000005</v>
+        <v>0.43425000000000002</v>
       </c>
       <c r="C2">
-        <v>0.4299</v>
+        <v>0.69130000000000003</v>
       </c>
       <c r="D2">
-        <v>0.66984999999999995</v>
+        <v>0.69259999999999999</v>
       </c>
       <c r="E2">
-        <v>0.68205000000000005</v>
+        <v>0.68955</v>
       </c>
       <c r="F2">
-        <v>0.94105000000000005</v>
+        <v>0.65249999999999997</v>
       </c>
       <c r="G2">
-        <v>0.4365</v>
+        <v>0.68045</v>
       </c>
       <c r="H2">
-        <v>0.69430000000000003</v>
+        <v>0.44435000000000002</v>
       </c>
       <c r="I2">
-        <v>0.69974999999999998</v>
+        <v>0.91785000000000005</v>
       </c>
       <c r="J2">
-        <v>0.68389999999999995</v>
+        <v>0.67154999999999998</v>
       </c>
       <c r="K2">
-        <v>0.43645</v>
+        <v>0.43769999999999998</v>
       </c>
       <c r="L2">
-        <v>0.67479999999999996</v>
+        <v>0.67959999999999998</v>
       </c>
       <c r="M2">
-        <v>0.67530000000000001</v>
+        <v>0.67435</v>
       </c>
       <c r="N2">
-        <v>0.44174999999999998</v>
+        <v>0.67144999999999999</v>
       </c>
       <c r="O2">
-        <v>0.70255000000000001</v>
+        <v>0.66525000000000001</v>
       </c>
       <c r="P2">
-        <v>0.66064999999999996</v>
+        <v>0.64959999999999996</v>
       </c>
       <c r="Q2">
-        <v>0.68635000000000002</v>
+        <v>0.69779999999999998</v>
       </c>
       <c r="R2">
-        <v>0.91910000000000003</v>
+        <v>0.68589999999999995</v>
       </c>
       <c r="S2">
-        <v>0.44274999999999998</v>
+        <v>0.69159999999999999</v>
       </c>
       <c r="T2">
-        <v>0.67584999999999995</v>
+        <v>0.67625000000000002</v>
       </c>
       <c r="U2">
-        <v>0.69679999999999997</v>
+        <v>0.69489999999999996</v>
       </c>
       <c r="V2">
-        <v>0.66139999999999999</v>
+        <v>0.66549999999999998</v>
       </c>
       <c r="W2">
-        <v>0.66239999999999999</v>
+        <v>0.69</v>
       </c>
       <c r="X2">
-        <v>0.68520000000000003</v>
+        <v>0.65634999999999999</v>
       </c>
       <c r="Y2">
-        <v>0.66820000000000002</v>
+        <v>0.44090000000000001</v>
       </c>
       <c r="Z2">
-        <v>0.68105000000000004</v>
+        <v>0.69099999999999995</v>
       </c>
       <c r="AA2">
-        <v>0.67420000000000002</v>
+        <v>0.69589999999999996</v>
       </c>
       <c r="AB2">
-        <v>0.69574999999999998</v>
+        <v>0.68154999999999999</v>
       </c>
       <c r="AC2">
+        <v>0.9274</v>
+      </c>
+      <c r="AD2">
+        <v>0.6744</v>
+      </c>
+      <c r="AE2">
+        <v>0.67310000000000003</v>
+      </c>
+      <c r="AF2">
+        <v>0.43835000000000002</v>
+      </c>
+      <c r="AG2">
+        <v>0.65369999999999995</v>
+      </c>
+      <c r="AH2">
         <v>0.69094999999999995</v>
       </c>
-      <c r="AD2">
-        <v>0.66895000000000004</v>
-      </c>
-      <c r="AE2">
-        <v>0.69264999999999999</v>
-      </c>
-      <c r="AF2">
-        <v>0.71560000000000001</v>
-      </c>
-      <c r="AG2">
-        <v>0.67620000000000002</v>
-      </c>
-      <c r="AH2">
-        <v>0.68630000000000002</v>
-      </c>
       <c r="AI2">
-        <v>0.6895</v>
+        <v>0.43859999999999999</v>
       </c>
       <c r="AJ2">
-        <v>0.67864999999999998</v>
+        <v>0.66474999999999995</v>
       </c>
       <c r="AK2">
-        <v>0.66154999999999997</v>
+        <v>0.65815000000000001</v>
       </c>
       <c r="AL2">
-        <v>0.67074999999999996</v>
+        <v>0.67115000000000002</v>
       </c>
       <c r="AM2">
-        <v>0.67595000000000005</v>
+        <v>0.70469999999999999</v>
       </c>
       <c r="AN2">
-        <v>0.66535</v>
+        <v>0.66864999999999997</v>
       </c>
       <c r="AO2">
-        <v>0.65759999999999996</v>
+        <v>0.44629999999999997</v>
       </c>
       <c r="AP2">
-        <v>0.64500000000000002</v>
+        <v>0.66549999999999998</v>
       </c>
       <c r="AQ2">
-        <v>0.67435</v>
+        <v>0.68625000000000003</v>
       </c>
       <c r="AR2">
-        <v>0.67205000000000004</v>
+        <v>0.68064999999999998</v>
       </c>
       <c r="AS2">
-        <v>0.69364999999999999</v>
+        <v>0.68935000000000002</v>
       </c>
       <c r="AT2">
-        <v>0.67579999999999996</v>
+        <v>0.97489999999999999</v>
       </c>
       <c r="AU2">
-        <v>0.66300000000000003</v>
+        <v>0.44540000000000002</v>
       </c>
       <c r="AV2">
-        <v>0.43295</v>
+        <v>0.68640000000000001</v>
       </c>
       <c r="AW2">
-        <v>0.72404999999999997</v>
+        <v>0.45084999999999997</v>
       </c>
       <c r="AX2">
-        <v>0.67464999999999997</v>
+        <v>0.69769999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0.67510000000000003</v>
+        <v>0.67079999999999995</v>
       </c>
       <c r="B3">
-        <v>0.88109999999999999</v>
+        <v>0.40934999999999999</v>
       </c>
       <c r="C3">
-        <v>0.41920000000000002</v>
+        <v>0.65600000000000003</v>
       </c>
       <c r="D3">
-        <v>0.9355</v>
+        <v>0.64170000000000005</v>
       </c>
       <c r="E3">
-        <v>0.92705000000000004</v>
+        <v>0.64949999999999997</v>
       </c>
       <c r="F3">
-        <v>0.9073</v>
+        <v>0.69074999999999998</v>
       </c>
       <c r="G3">
-        <v>0.40184999999999998</v>
+        <v>0.63049999999999995</v>
       </c>
       <c r="H3">
-        <v>0.67279999999999995</v>
+        <v>0.40894999999999998</v>
       </c>
       <c r="I3">
-        <v>0.95894999999999997</v>
+        <v>0.86514999999999997</v>
       </c>
       <c r="J3">
-        <v>0.64624999999999999</v>
+        <v>0.60245000000000004</v>
       </c>
       <c r="K3">
-        <v>0.67615000000000003</v>
+        <v>0.68125000000000002</v>
       </c>
       <c r="L3">
-        <v>0.62844999999999995</v>
+        <v>0.59275</v>
       </c>
       <c r="M3">
-        <v>0.66444999999999999</v>
+        <v>0.71425000000000005</v>
       </c>
       <c r="N3">
-        <v>0.41525000000000001</v>
+        <v>0.86495</v>
       </c>
       <c r="O3">
-        <v>0.63139999999999996</v>
+        <v>0.60750000000000004</v>
       </c>
       <c r="P3">
-        <v>0.63680000000000003</v>
+        <v>0.59584999999999999</v>
       </c>
       <c r="Q3">
-        <v>0.7016</v>
+        <v>0.6462</v>
       </c>
       <c r="R3">
-        <v>0.91715000000000002</v>
+        <v>0.82255</v>
       </c>
       <c r="S3">
-        <v>0.41970000000000002</v>
+        <v>0.67025000000000001</v>
       </c>
       <c r="T3">
-        <v>0.69764999999999999</v>
+        <v>0.66059999999999997</v>
       </c>
       <c r="U3">
-        <v>0.66454999999999997</v>
+        <v>0.65300000000000002</v>
       </c>
       <c r="V3">
-        <v>0.62375000000000003</v>
+        <v>0.61375000000000002</v>
       </c>
       <c r="W3">
-        <v>0.62024999999999997</v>
+        <v>0.66679999999999995</v>
       </c>
       <c r="X3">
-        <v>0.66490000000000005</v>
+        <v>0.60404999999999998</v>
       </c>
       <c r="Y3">
-        <v>0.6169</v>
+        <v>0.66664999999999996</v>
       </c>
       <c r="Z3">
-        <v>0.64700000000000002</v>
+        <v>0.94269999999999998</v>
       </c>
       <c r="AA3">
-        <v>0.83304999999999996</v>
+        <v>0.66779999999999995</v>
       </c>
       <c r="AB3">
-        <v>0.68305000000000005</v>
+        <v>0.65349999999999997</v>
       </c>
       <c r="AC3">
-        <v>0.93215000000000003</v>
+        <v>0.92754999999999999</v>
       </c>
       <c r="AD3">
-        <v>0.86304999999999998</v>
+        <v>0.62019999999999997</v>
       </c>
       <c r="AE3">
-        <v>0.67215000000000003</v>
+        <v>0.60589999999999999</v>
       </c>
       <c r="AF3">
-        <v>0.93005000000000004</v>
+        <v>0.39939999999999998</v>
       </c>
       <c r="AG3">
-        <v>0.87719999999999998</v>
+        <v>0.60634999999999994</v>
       </c>
       <c r="AH3">
-        <v>0.66059999999999997</v>
+        <v>0.67874999999999996</v>
       </c>
       <c r="AI3">
-        <v>0.65190000000000003</v>
+        <v>0.40260000000000001</v>
       </c>
       <c r="AJ3">
-        <v>0.66469999999999996</v>
+        <v>0.70279999999999998</v>
       </c>
       <c r="AK3">
-        <v>0.61334999999999995</v>
+        <v>0.58294999999999997</v>
       </c>
       <c r="AL3">
-        <v>0.60814999999999997</v>
+        <v>0.61609999999999998</v>
       </c>
       <c r="AM3">
-        <v>0.61829999999999996</v>
+        <v>0.90754999999999997</v>
       </c>
       <c r="AN3">
-        <v>0.60645000000000004</v>
+        <v>0.63270000000000004</v>
       </c>
       <c r="AO3">
-        <v>0.61080000000000001</v>
+        <v>0.42704999999999999</v>
       </c>
       <c r="AP3">
-        <v>0.58250000000000002</v>
+        <v>0.63900000000000001</v>
       </c>
       <c r="AQ3">
-        <v>0.64510000000000001</v>
+        <v>0.67900000000000005</v>
       </c>
       <c r="AR3">
-        <v>0.70284999999999997</v>
+        <v>0.59719999999999995</v>
       </c>
       <c r="AS3">
-        <v>0.69520000000000004</v>
+        <v>0.69994999999999996</v>
       </c>
       <c r="AT3">
-        <v>0.62034999999999996</v>
+        <v>0.96404999999999996</v>
       </c>
       <c r="AU3">
-        <v>0.61470000000000002</v>
+        <v>0.41155000000000003</v>
       </c>
       <c r="AV3">
-        <v>0.38250000000000001</v>
+        <v>0.66754999999999998</v>
       </c>
       <c r="AW3">
-        <v>0.68694999999999995</v>
+        <v>0.42835000000000001</v>
       </c>
       <c r="AX3">
-        <v>0.58584999999999998</v>
+        <v>0.66864999999999997</v>
       </c>
     </row>
     <row r="4" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0.85375000000000001</v>
+        <v>0.62975000000000003</v>
       </c>
       <c r="B4">
-        <v>0.8306</v>
+        <v>0.37664999999999998</v>
       </c>
       <c r="C4">
-        <v>0.33679999999999999</v>
+        <v>0.62509999999999999</v>
       </c>
       <c r="D4">
-        <v>0.8649</v>
+        <v>0.66390000000000005</v>
       </c>
       <c r="E4">
-        <v>0.9123</v>
+        <v>0.56284999999999996</v>
       </c>
       <c r="F4">
-        <v>0.88144999999999996</v>
+        <v>0.95045000000000002</v>
       </c>
       <c r="G4">
-        <v>0.37680000000000002</v>
+        <v>0.58884999999999998</v>
       </c>
       <c r="H4">
-        <v>0.61575000000000002</v>
+        <v>0.38395000000000001</v>
       </c>
       <c r="I4">
-        <v>0.93269999999999997</v>
+        <v>0.81230000000000002</v>
       </c>
       <c r="J4">
-        <v>0.60945000000000005</v>
+        <v>0.52044999999999997</v>
       </c>
       <c r="K4">
-        <v>0.66720000000000002</v>
+        <v>0.65254999999999996</v>
       </c>
       <c r="L4">
-        <v>0.55774999999999997</v>
+        <v>0.55920000000000003</v>
       </c>
       <c r="M4">
-        <v>0.94394999999999996</v>
+        <v>0.6573</v>
       </c>
       <c r="N4">
-        <v>0.36749999999999999</v>
+        <v>0.85970000000000002</v>
       </c>
       <c r="O4">
-        <v>0.89529999999999998</v>
+        <v>0.51629999999999998</v>
       </c>
       <c r="P4">
-        <v>0.57655000000000001</v>
+        <v>0.54305000000000003</v>
       </c>
       <c r="Q4">
-        <v>0.66944999999999999</v>
+        <v>0.82215000000000005</v>
       </c>
       <c r="R4">
-        <v>0.88205</v>
+        <v>0.78200000000000003</v>
       </c>
       <c r="S4">
-        <v>0.78334999999999999</v>
+        <v>0.57855000000000001</v>
       </c>
       <c r="T4">
-        <v>0.67700000000000005</v>
+        <v>0.63780000000000003</v>
       </c>
       <c r="U4">
-        <v>0.78359999999999996</v>
+        <v>0.58465</v>
       </c>
       <c r="V4">
-        <v>0.56210000000000004</v>
+        <v>0.60309999999999997</v>
       </c>
       <c r="W4">
-        <v>0.58720000000000006</v>
+        <v>0.58050000000000002</v>
       </c>
       <c r="X4">
-        <v>0.59970000000000001</v>
+        <v>0.59084999999999999</v>
       </c>
       <c r="Y4">
-        <v>0.57525000000000004</v>
+        <v>0.59714999999999996</v>
       </c>
       <c r="Z4">
-        <v>0.56920000000000004</v>
+        <v>0.85829999999999995</v>
       </c>
       <c r="AA4">
-        <v>0.73180000000000001</v>
+        <v>0.62605</v>
       </c>
       <c r="AB4">
-        <v>0.65754999999999997</v>
+        <v>0.58889999999999998</v>
       </c>
       <c r="AC4">
-        <v>0.92554999999999998</v>
+        <v>0.87329999999999997</v>
       </c>
       <c r="AD4">
-        <v>0.78925000000000001</v>
+        <v>0.84694999999999998</v>
       </c>
       <c r="AE4">
-        <v>0.85960000000000003</v>
+        <v>0.55020000000000002</v>
       </c>
       <c r="AF4">
-        <v>0.87114999999999998</v>
+        <v>0.35310000000000002</v>
       </c>
       <c r="AG4">
-        <v>0.82479999999999998</v>
+        <v>0.53105000000000002</v>
       </c>
       <c r="AH4">
-        <v>0.56810000000000005</v>
+        <v>0.6038</v>
       </c>
       <c r="AI4">
-        <v>0.59150000000000003</v>
+        <v>0.59250000000000003</v>
       </c>
       <c r="AJ4">
-        <v>0.62219999999999998</v>
+        <v>0.88819999999999999</v>
       </c>
       <c r="AK4">
-        <v>0.58169999999999999</v>
+        <v>0.56184999999999996</v>
       </c>
       <c r="AL4">
-        <v>0.55520000000000003</v>
+        <v>0.53559999999999997</v>
       </c>
       <c r="AM4">
-        <v>0.55584999999999996</v>
+        <v>0.84060000000000001</v>
       </c>
       <c r="AN4">
-        <v>0.52625</v>
+        <v>0.56455</v>
       </c>
       <c r="AO4">
-        <v>0.54420000000000002</v>
+        <v>0.38605</v>
       </c>
       <c r="AP4">
-        <v>0.53095000000000003</v>
+        <v>0.54005000000000003</v>
       </c>
       <c r="AQ4">
-        <v>0.60224999999999995</v>
+        <v>0.92525000000000002</v>
       </c>
       <c r="AR4">
-        <v>0.92449999999999999</v>
+        <v>0.54090000000000005</v>
       </c>
       <c r="AS4">
-        <v>0.67589999999999995</v>
+        <v>0.67820000000000003</v>
       </c>
       <c r="AT4">
-        <v>0.54825000000000002</v>
+        <v>0.88195000000000001</v>
       </c>
       <c r="AU4">
-        <v>0.55005000000000004</v>
+        <v>0.62295</v>
       </c>
       <c r="AV4">
-        <v>0.63075000000000003</v>
+        <v>0.62095</v>
       </c>
       <c r="AW4">
-        <v>0.66930000000000001</v>
+        <v>0.37269999999999998</v>
       </c>
       <c r="AX4">
-        <v>0.52739999999999998</v>
+        <v>0.63344999999999996</v>
       </c>
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>0.80925000000000002</v>
+        <v>0.51954999999999996</v>
       </c>
       <c r="B5">
-        <v>0.75629999999999997</v>
+        <v>0.30149999999999999</v>
       </c>
       <c r="C5">
-        <v>0.49299999999999999</v>
+        <v>0.57720000000000005</v>
       </c>
       <c r="D5">
-        <v>0.81159999999999999</v>
+        <v>0.63265000000000005</v>
       </c>
       <c r="E5">
-        <v>0.81459999999999999</v>
+        <v>0.90595000000000003</v>
       </c>
       <c r="F5">
-        <v>0.78239999999999998</v>
+        <v>0.90605000000000002</v>
       </c>
       <c r="G5">
-        <v>0.3226</v>
+        <v>0.61819999999999997</v>
       </c>
       <c r="H5">
-        <v>0.58465</v>
+        <v>0.30759999999999998</v>
       </c>
       <c r="I5">
-        <v>0.83109999999999995</v>
+        <v>0.72184999999999999</v>
       </c>
       <c r="J5">
-        <v>0.49249999999999999</v>
+        <v>0.58975</v>
       </c>
       <c r="K5">
-        <v>0.96350000000000002</v>
+        <v>0.56274999999999997</v>
       </c>
       <c r="L5">
-        <v>0.45474999999999999</v>
+        <v>0.68415000000000004</v>
       </c>
       <c r="M5">
-        <v>0.93120000000000003</v>
+        <v>0.62080000000000002</v>
       </c>
       <c r="N5">
-        <v>0.64305000000000001</v>
+        <v>0.82979999999999998</v>
       </c>
       <c r="O5">
-        <v>0.85804999999999998</v>
+        <v>0.44450000000000001</v>
       </c>
       <c r="P5">
-        <v>0.86895</v>
+        <v>0.47549999999999998</v>
       </c>
       <c r="Q5">
-        <v>0.81469999999999998</v>
+        <v>0.80295000000000005</v>
       </c>
       <c r="R5">
-        <v>0.85175000000000001</v>
+        <v>0.82594999999999996</v>
       </c>
       <c r="S5">
-        <v>0.67259999999999998</v>
+        <v>0.56179999999999997</v>
       </c>
       <c r="T5">
-        <v>0.60375000000000001</v>
+        <v>0.54139999999999999</v>
       </c>
       <c r="U5">
-        <v>0.78134999999999999</v>
+        <v>0.628</v>
       </c>
       <c r="V5">
-        <v>0.45679999999999998</v>
+        <v>0.56179999999999997</v>
       </c>
       <c r="W5">
-        <v>0.4365</v>
+        <v>0.51765000000000005</v>
       </c>
       <c r="X5">
-        <v>0.88029999999999997</v>
+        <v>0.48580000000000001</v>
       </c>
       <c r="Y5">
-        <v>0.55369999999999997</v>
+        <v>0.53415000000000001</v>
       </c>
       <c r="Z5">
-        <v>0.74724999999999997</v>
+        <v>0.84704999999999997</v>
       </c>
       <c r="AA5">
-        <v>0.75280000000000002</v>
+        <v>0.58279999999999998</v>
       </c>
       <c r="AB5">
-        <v>0.56805000000000005</v>
+        <v>0.67059999999999997</v>
       </c>
       <c r="AC5">
-        <v>0.92964999999999998</v>
+        <v>0.97260000000000002</v>
       </c>
       <c r="AD5">
-        <v>0.69850000000000001</v>
+        <v>0.82889999999999997</v>
       </c>
       <c r="AE5">
-        <v>0.78344999999999998</v>
+        <v>0.45860000000000001</v>
       </c>
       <c r="AF5">
-        <v>0.73340000000000005</v>
+        <v>0.31879999999999997</v>
       </c>
       <c r="AG5">
-        <v>0.85514999999999997</v>
+        <v>0.51019999999999999</v>
       </c>
       <c r="AH5">
-        <v>0.48285</v>
+        <v>0.49380000000000002</v>
       </c>
       <c r="AI5">
-        <v>0.53349999999999997</v>
+        <v>0.52700000000000002</v>
       </c>
       <c r="AJ5">
-        <v>0.55025000000000002</v>
+        <v>0.96455000000000002</v>
       </c>
       <c r="AK5">
-        <v>0.51305000000000001</v>
+        <v>0.63649999999999995</v>
       </c>
       <c r="AL5">
-        <v>0.60604999999999998</v>
+        <v>0.74534999999999996</v>
       </c>
       <c r="AM5">
-        <v>0.44390000000000002</v>
+        <v>0.71445000000000003</v>
       </c>
       <c r="AN5">
-        <v>0.59375</v>
+        <v>0.51329999999999998</v>
       </c>
       <c r="AO5">
-        <v>0.62570000000000003</v>
+        <v>0.29649999999999999</v>
       </c>
       <c r="AP5">
-        <v>0.50685000000000002</v>
+        <v>0.40765000000000001</v>
       </c>
       <c r="AQ5">
-        <v>0.51929999999999998</v>
+        <v>0.94130000000000003</v>
       </c>
       <c r="AR5">
-        <v>0.88229999999999997</v>
+        <v>0.59465000000000001</v>
       </c>
       <c r="AS5">
-        <v>0.6179</v>
+        <v>0.65139999999999998</v>
       </c>
       <c r="AT5">
-        <v>0.8004</v>
+        <v>0.82320000000000004</v>
       </c>
       <c r="AU5">
-        <v>0.60745000000000005</v>
+        <v>0.47120000000000001</v>
       </c>
       <c r="AV5">
-        <v>0.81079999999999997</v>
+        <v>0.51985000000000003</v>
       </c>
       <c r="AW5">
-        <v>0.65949999999999998</v>
+        <v>0.33200000000000002</v>
       </c>
       <c r="AX5">
-        <v>0.46939999999999998</v>
+        <v>0.56384999999999996</v>
       </c>
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>0.68579999999999997</v>
+        <v>0.46939999999999998</v>
       </c>
       <c r="B6">
-        <v>0.71730000000000005</v>
+        <v>0.44685000000000002</v>
       </c>
       <c r="C6">
-        <v>0.89139999999999997</v>
+        <v>0.83194999999999997</v>
       </c>
       <c r="D6">
-        <v>0.76505000000000001</v>
+        <v>0.86009999999999998</v>
       </c>
       <c r="E6">
-        <v>0.85399999999999998</v>
+        <v>0.85489999999999999</v>
       </c>
       <c r="F6">
-        <v>0.8004</v>
+        <v>0.89034999999999997</v>
       </c>
       <c r="G6">
-        <v>0.23830000000000001</v>
+        <v>0.82665</v>
       </c>
       <c r="H6">
-        <v>0.37824999999999998</v>
+        <v>0.46510000000000001</v>
       </c>
       <c r="I6">
-        <v>0.94325000000000003</v>
+        <v>0.75334999999999996</v>
       </c>
       <c r="J6">
-        <v>0.58755000000000002</v>
+        <v>0.46705000000000002</v>
       </c>
       <c r="K6">
-        <v>0.8014</v>
+        <v>0.75390000000000001</v>
       </c>
       <c r="L6">
-        <v>0.54264999999999997</v>
+        <v>0.50990000000000002</v>
       </c>
       <c r="M6">
-        <v>0.89685000000000004</v>
+        <v>0.75239999999999996</v>
       </c>
       <c r="N6">
-        <v>0.58579999999999999</v>
+        <v>0.74890000000000001</v>
       </c>
       <c r="O6">
-        <v>0.75305</v>
+        <v>0.30180000000000001</v>
       </c>
       <c r="P6">
-        <v>0.73965000000000003</v>
+        <v>0.56345000000000001</v>
       </c>
       <c r="Q6">
-        <v>0.76054999999999995</v>
+        <v>0.90695000000000003</v>
       </c>
       <c r="R6">
-        <v>0.81705000000000005</v>
+        <v>0.73834999999999995</v>
       </c>
       <c r="S6">
-        <v>0.73494999999999999</v>
+        <v>0.51644999999999996</v>
       </c>
       <c r="T6">
-        <v>0.54944999999999999</v>
+        <v>0.36809999999999998</v>
       </c>
       <c r="U6">
-        <v>0.72594999999999998</v>
+        <v>0.79690000000000005</v>
       </c>
       <c r="V6">
-        <v>0.30209999999999998</v>
+        <v>0.57809999999999995</v>
       </c>
       <c r="W6">
-        <v>0.34589999999999999</v>
+        <v>0.54884999999999995</v>
       </c>
       <c r="X6">
-        <v>0.95320000000000005</v>
+        <v>0.40065000000000001</v>
       </c>
       <c r="Y6">
-        <v>0.55205000000000004</v>
+        <v>0.43204999999999999</v>
       </c>
       <c r="Z6">
-        <v>0.60240000000000005</v>
+        <v>0.74550000000000005</v>
       </c>
       <c r="AA6">
-        <v>0.69084999999999996</v>
+        <v>0.60055000000000003</v>
       </c>
       <c r="AB6">
-        <v>0.42054999999999998</v>
+        <v>0.64144999999999996</v>
       </c>
       <c r="AC6">
-        <v>0.89544999999999997</v>
+        <v>0.85904999999999998</v>
       </c>
       <c r="AD6">
-        <v>0.47604999999999997</v>
+        <v>0.74024999999999996</v>
       </c>
       <c r="AE6">
-        <v>0.65680000000000005</v>
+        <v>0.36</v>
       </c>
       <c r="AF6">
-        <v>0.93194999999999995</v>
+        <v>0.64754999999999996</v>
       </c>
       <c r="AG6">
-        <v>0.87024999999999997</v>
+        <v>0.44340000000000002</v>
       </c>
       <c r="AH6">
-        <v>0.40325</v>
+        <v>0.32979999999999998</v>
       </c>
       <c r="AI6">
-        <v>0.54295000000000004</v>
+        <v>0.4733</v>
       </c>
       <c r="AJ6">
-        <v>0.41849999999999998</v>
+        <v>0.9506</v>
       </c>
       <c r="AK6">
-        <v>0.497</v>
+        <v>0.70765</v>
       </c>
       <c r="AL6">
-        <v>0.56779999999999997</v>
+        <v>0.81605000000000005</v>
       </c>
       <c r="AM6">
-        <v>0.31230000000000002</v>
+        <v>0.52675000000000005</v>
       </c>
       <c r="AN6">
-        <v>0.55689999999999995</v>
+        <v>0.40005000000000002</v>
       </c>
       <c r="AO6">
-        <v>0.66144999999999998</v>
+        <v>0.21179999999999999</v>
       </c>
       <c r="AP6">
-        <v>0.37719999999999998</v>
+        <v>0.36585000000000001</v>
       </c>
       <c r="AQ6">
-        <v>0.49630000000000002</v>
+        <v>0.89319999999999999</v>
       </c>
       <c r="AR6">
-        <v>0.76190000000000002</v>
+        <v>0.8</v>
       </c>
       <c r="AS6">
-        <v>0.5827</v>
+        <v>0.60155000000000003</v>
       </c>
       <c r="AT6">
-        <v>0.70750000000000002</v>
+        <v>0.91774999999999995</v>
       </c>
       <c r="AU6">
-        <v>0.67005000000000003</v>
+        <v>0.77354999999999996</v>
       </c>
       <c r="AV6">
-        <v>0.66264999999999996</v>
+        <v>0.53069999999999995</v>
       </c>
       <c r="AW6">
-        <v>0.62509999999999999</v>
+        <v>0.40679999999999999</v>
       </c>
       <c r="AX6">
-        <v>0.74744999999999995</v>
+        <v>0.55735000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>0.48425000000000001</v>
+        <v>0.60709999999999997</v>
       </c>
       <c r="B7">
-        <v>0.65200000000000002</v>
+        <v>0.48845</v>
       </c>
       <c r="C7">
-        <v>0.92715000000000003</v>
+        <v>0.76270000000000004</v>
       </c>
       <c r="D7">
-        <v>0.88605</v>
+        <v>0.74755000000000005</v>
       </c>
       <c r="E7">
-        <v>0.73609999999999998</v>
+        <v>0.79320000000000002</v>
       </c>
       <c r="F7">
-        <v>0.74399999999999999</v>
+        <v>0.75339999999999996</v>
       </c>
       <c r="G7">
-        <v>0.14169999999999999</v>
+        <v>0.73229999999999995</v>
       </c>
       <c r="H7">
-        <v>0.58989999999999998</v>
+        <v>0.86345000000000005</v>
       </c>
       <c r="I7">
-        <v>0.88170000000000004</v>
+        <v>0.70315000000000005</v>
       </c>
       <c r="J7">
-        <v>0.57894999999999996</v>
+        <v>0.4047</v>
       </c>
       <c r="K7">
-        <v>0.89990000000000003</v>
+        <v>0.68569999999999998</v>
       </c>
       <c r="L7">
-        <v>0.36764999999999998</v>
+        <v>0.35370000000000001</v>
       </c>
       <c r="M7">
-        <v>0.89810000000000001</v>
+        <v>0.53634999999999999</v>
       </c>
       <c r="N7">
-        <v>0.74565000000000003</v>
+        <v>0.66725000000000001</v>
       </c>
       <c r="O7">
-        <v>0.6663</v>
+        <v>0.19015000000000001</v>
       </c>
       <c r="P7">
-        <v>0.62285000000000001</v>
+        <v>0.33179999999999998</v>
       </c>
       <c r="Q7">
-        <v>0.60245000000000004</v>
+        <v>0.83925000000000005</v>
       </c>
       <c r="R7">
-        <v>0.84009999999999996</v>
+        <v>0.66544999999999999</v>
       </c>
       <c r="S7">
-        <v>0.52134999999999998</v>
+        <v>0.41310000000000002</v>
       </c>
       <c r="T7">
-        <v>0.83650000000000002</v>
+        <v>0.42004999999999998</v>
       </c>
       <c r="U7">
-        <v>0.64610000000000001</v>
+        <v>0.94335000000000002</v>
       </c>
       <c r="V7">
-        <v>0.49270000000000003</v>
+        <v>0.52129999999999999</v>
       </c>
       <c r="W7">
-        <v>0.66585000000000005</v>
+        <v>0.49085000000000001</v>
       </c>
       <c r="X7">
-        <v>0.92864999999999998</v>
+        <v>0.55595000000000006</v>
       </c>
       <c r="Y7">
-        <v>0.52800000000000002</v>
+        <v>0.50885000000000002</v>
       </c>
       <c r="Z7">
-        <v>0.57294999999999996</v>
+        <v>0.65395000000000003</v>
       </c>
       <c r="AA7">
-        <v>0.58389999999999997</v>
+        <v>0.87529999999999997</v>
       </c>
       <c r="AB7">
-        <v>0.45929999999999999</v>
+        <v>0.74544999999999995</v>
       </c>
       <c r="AC7">
-        <v>0.91925000000000001</v>
+        <v>0.7319</v>
       </c>
       <c r="AD7">
-        <v>0.42349999999999999</v>
+        <v>0.86950000000000005</v>
       </c>
       <c r="AE7">
-        <v>0.51365000000000005</v>
+        <v>0.67195000000000005</v>
       </c>
       <c r="AF7">
-        <v>0.877</v>
+        <v>0.6341</v>
       </c>
       <c r="AG7">
-        <v>0.76365000000000005</v>
+        <v>0.23380000000000001</v>
       </c>
       <c r="AH7">
-        <v>0.35909999999999997</v>
+        <v>0.21475</v>
       </c>
       <c r="AI7">
-        <v>0.5131</v>
+        <v>0.46905000000000002</v>
       </c>
       <c r="AJ7">
-        <v>0.34234999999999999</v>
+        <v>0.83530000000000004</v>
       </c>
       <c r="AK7">
-        <v>0.33505000000000001</v>
+        <v>0.54459999999999997</v>
       </c>
       <c r="AL7">
-        <v>0.48380000000000001</v>
+        <v>0.68845000000000001</v>
       </c>
       <c r="AM7">
-        <v>0.18909999999999999</v>
+        <v>0.68140000000000001</v>
       </c>
       <c r="AN7">
-        <v>0.54269999999999996</v>
+        <v>0.53105000000000002</v>
       </c>
       <c r="AO7">
-        <v>0.56515000000000004</v>
+        <v>0.30995</v>
       </c>
       <c r="AP7">
-        <v>0.38135000000000002</v>
+        <v>0.27389999999999998</v>
       </c>
       <c r="AQ7">
-        <v>0.37314999999999998</v>
+        <v>0.84504999999999997</v>
       </c>
       <c r="AR7">
-        <v>0.86604999999999999</v>
+        <v>0.68140000000000001</v>
       </c>
       <c r="AS7">
-        <v>0.6673</v>
+        <v>0.54564999999999997</v>
       </c>
       <c r="AT7">
-        <v>0.59135000000000004</v>
+        <v>0.86219999999999997</v>
       </c>
       <c r="AU7">
-        <v>0.53790000000000004</v>
+        <v>0.56989999999999996</v>
       </c>
       <c r="AV7">
-        <v>0.76780000000000004</v>
+        <v>0.52764999999999995</v>
       </c>
       <c r="AW7">
-        <v>0.87995000000000001</v>
+        <v>0.32874999999999999</v>
       </c>
       <c r="AX7">
-        <v>0.70809999999999995</v>
+        <v>0.54279999999999995</v>
       </c>
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>0.51359999999999995</v>
+        <v>0.52370000000000005</v>
       </c>
       <c r="B8">
-        <v>0.44664999999999999</v>
+        <v>0.45700000000000002</v>
       </c>
       <c r="C8">
-        <v>0.83565</v>
+        <v>0.63505</v>
       </c>
       <c r="D8">
-        <v>0.79510000000000003</v>
+        <v>0.84279999999999999</v>
       </c>
       <c r="E8">
-        <v>0.48459999999999998</v>
+        <v>0.81425000000000003</v>
       </c>
       <c r="F8">
-        <v>0.74895</v>
+        <v>0.77625</v>
       </c>
       <c r="G8">
-        <v>4.1250000000000002E-2</v>
+        <v>0.74065000000000003</v>
       </c>
       <c r="H8">
-        <v>0.77205000000000001</v>
+        <v>0.73895</v>
       </c>
       <c r="I8">
-        <v>0.79410000000000003</v>
+        <v>0.68100000000000005</v>
       </c>
       <c r="J8">
-        <v>0.52500000000000002</v>
+        <v>0.34079999999999999</v>
       </c>
       <c r="K8">
-        <v>0.80015000000000003</v>
+        <v>0.54005000000000003</v>
       </c>
       <c r="L8">
-        <v>0.26264999999999999</v>
+        <v>0.54715000000000003</v>
       </c>
       <c r="M8">
-        <v>0.8962</v>
+        <v>0.78154999999999997</v>
       </c>
       <c r="N8">
-        <v>0.70435000000000003</v>
+        <v>0.50544999999999995</v>
       </c>
       <c r="O8">
-        <v>0.88314999999999999</v>
+        <v>0.11175</v>
       </c>
       <c r="P8">
-        <v>0.63990000000000002</v>
+        <v>0.41155000000000003</v>
       </c>
       <c r="Q8">
-        <v>0.53600000000000003</v>
+        <v>0.93359999999999999</v>
       </c>
       <c r="R8">
-        <v>0.81384999999999996</v>
+        <v>0.58804999999999996</v>
       </c>
       <c r="S8">
-        <v>0.41825000000000001</v>
+        <v>0.64734999999999998</v>
       </c>
       <c r="T8">
-        <v>0.95130000000000003</v>
+        <v>0.49640000000000001</v>
       </c>
       <c r="U8">
-        <v>0.90159999999999996</v>
+        <v>0.90169999999999995</v>
       </c>
       <c r="V8">
-        <v>0.43959999999999999</v>
+        <v>0.67300000000000004</v>
       </c>
       <c r="W8">
-        <v>0.51270000000000004</v>
+        <v>0.76619999999999999</v>
       </c>
       <c r="X8">
-        <v>0.85140000000000005</v>
+        <v>0.59450000000000003</v>
       </c>
       <c r="Y8">
-        <v>0.6925</v>
+        <v>0.38450000000000001</v>
       </c>
       <c r="Z8">
-        <v>0.57525000000000004</v>
+        <v>0.55915000000000004</v>
       </c>
       <c r="AA8">
-        <v>0.51065000000000005</v>
+        <v>0.71084999999999998</v>
       </c>
       <c r="AB8">
-        <v>0.38400000000000001</v>
+        <v>0.74809999999999999</v>
       </c>
       <c r="AC8">
-        <v>0.98765000000000003</v>
+        <v>0.72545000000000004</v>
       </c>
       <c r="AD8">
-        <v>0.4501</v>
+        <v>0.74965000000000004</v>
       </c>
       <c r="AE8">
-        <v>0.61539999999999995</v>
+        <v>0.44145000000000001</v>
       </c>
       <c r="AF8">
-        <v>0.79769999999999996</v>
+        <v>0.48704999999999998</v>
       </c>
       <c r="AG8">
-        <v>0.87829999999999997</v>
+        <v>0.20865</v>
       </c>
       <c r="AH8">
-        <v>0.23135</v>
+        <v>0.21210000000000001</v>
       </c>
       <c r="AI8">
-        <v>0.40849999999999997</v>
+        <v>0.49064999999999998</v>
       </c>
       <c r="AJ8">
-        <v>0.31874999999999998</v>
+        <v>0.75719999999999998</v>
       </c>
       <c r="AK8">
-        <v>0.39415</v>
+        <v>0.36370000000000002</v>
       </c>
       <c r="AL8">
-        <v>0.62009999999999998</v>
+        <v>0.58960000000000001</v>
       </c>
       <c r="AM8">
-        <v>0.24510000000000001</v>
+        <v>0.47635</v>
       </c>
       <c r="AN8">
-        <v>0.50309999999999999</v>
+        <v>0.60370000000000001</v>
       </c>
       <c r="AO8">
-        <v>0.72840000000000005</v>
+        <v>0.40789999999999998</v>
       </c>
       <c r="AP8">
-        <v>0.38235000000000002</v>
+        <v>0.1431</v>
       </c>
       <c r="AQ8">
-        <v>0.43919999999999998</v>
+        <v>0.67615000000000003</v>
       </c>
       <c r="AR8">
-        <v>0.79049999999999998</v>
+        <v>0.57699999999999996</v>
       </c>
       <c r="AS8">
-        <v>0.86899999999999999</v>
+        <v>0.43269999999999997</v>
       </c>
       <c r="AT8">
-        <v>0.73380000000000001</v>
+        <v>0.91790000000000005</v>
       </c>
       <c r="AU8">
-        <v>0.45184999999999997</v>
+        <v>0.41249999999999998</v>
       </c>
       <c r="AV8">
-        <v>0.84650000000000003</v>
+        <v>0.46934999999999999</v>
       </c>
       <c r="AW8">
-        <v>0.85124999999999995</v>
+        <v>0.21529999999999999</v>
       </c>
       <c r="AX8">
-        <v>0.59284999999999999</v>
+        <v>0.33024999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>0.32990000000000003</v>
+        <v>0.39474999999999999</v>
       </c>
       <c r="B9">
-        <v>0.56540000000000001</v>
+        <v>0.24315000000000001</v>
       </c>
       <c r="C9">
-        <v>0.51160000000000005</v>
+        <v>0.77210000000000001</v>
       </c>
       <c r="D9">
-        <v>0.71730000000000005</v>
+        <v>0.9123</v>
       </c>
       <c r="E9">
-        <v>0.35299999999999998</v>
+        <v>0.88460000000000005</v>
       </c>
       <c r="F9">
-        <v>0.64854999999999996</v>
+        <v>0.69920000000000004</v>
       </c>
       <c r="G9">
-        <v>8.4949999999999998E-2</v>
+        <v>0.58604999999999996</v>
       </c>
       <c r="H9">
-        <v>0.56364999999999998</v>
+        <v>0.53420000000000001</v>
       </c>
       <c r="I9">
-        <v>0.55410000000000004</v>
+        <v>0.55384999999999995</v>
       </c>
       <c r="J9">
-        <v>0.7429</v>
+        <v>0.4466</v>
       </c>
       <c r="K9">
-        <v>0.7258</v>
+        <v>0.41749999999999998</v>
       </c>
       <c r="L9">
-        <v>0.38590000000000002</v>
+        <v>0.46944999999999998</v>
       </c>
       <c r="M9">
-        <v>0.74560000000000004</v>
+        <v>0.85975000000000001</v>
       </c>
       <c r="N9">
-        <v>0.74039999999999995</v>
+        <v>0.44195000000000001</v>
       </c>
       <c r="O9">
-        <v>0.81200000000000006</v>
+        <v>0.15240000000000001</v>
       </c>
       <c r="P9">
-        <v>0.65039999999999998</v>
+        <v>0.31969999999999998</v>
       </c>
       <c r="Q9">
-        <v>0.64954999999999996</v>
+        <v>0.9466</v>
       </c>
       <c r="R9">
-        <v>0.74199999999999999</v>
+        <v>0.80479999999999996</v>
       </c>
       <c r="S9">
-        <v>0.33115</v>
+        <v>0.80249999999999999</v>
       </c>
       <c r="T9">
-        <v>0.96109999999999995</v>
+        <v>0.73019999999999996</v>
       </c>
       <c r="U9">
-        <v>0.82869999999999999</v>
+        <v>0.97499999999999998</v>
       </c>
       <c r="V9">
-        <v>0.53234999999999999</v>
+        <v>0.56635000000000002</v>
       </c>
       <c r="W9">
-        <v>0.47455000000000003</v>
+        <v>0.70125000000000004</v>
       </c>
       <c r="X9">
-        <v>0.71130000000000004</v>
+        <v>0.68745000000000001</v>
       </c>
       <c r="Y9">
-        <v>0.65564999999999996</v>
+        <v>0.45765</v>
       </c>
       <c r="Z9">
-        <v>0.51949999999999996</v>
+        <v>0.57604999999999995</v>
       </c>
       <c r="AA9">
-        <v>0.4975</v>
+        <v>0.58274999999999999</v>
       </c>
       <c r="AB9">
-        <v>0.25924999999999998</v>
+        <v>0.78334999999999999</v>
       </c>
       <c r="AC9">
-        <v>0.96535000000000004</v>
+        <v>0.79435</v>
       </c>
       <c r="AD9">
-        <v>0.53154999999999997</v>
+        <v>0.57255</v>
       </c>
       <c r="AE9">
-        <v>0.33989999999999998</v>
+        <v>0.48704999999999998</v>
       </c>
       <c r="AF9">
-        <v>0.61480000000000001</v>
+        <v>0.46274999999999999</v>
       </c>
       <c r="AG9">
-        <v>0.86729999999999996</v>
+        <v>0.3453</v>
       </c>
       <c r="AH9">
-        <v>0.12665000000000001</v>
+        <v>0.42649999999999999</v>
       </c>
       <c r="AI9">
-        <v>0.62285000000000001</v>
+        <v>0.51370000000000005</v>
       </c>
       <c r="AJ9">
-        <v>0.50960000000000005</v>
+        <v>0.64939999999999998</v>
       </c>
       <c r="AK9">
-        <v>0.73660000000000003</v>
+        <v>0.20065</v>
       </c>
       <c r="AL9">
-        <v>0.69864999999999999</v>
+        <v>0.47739999999999999</v>
       </c>
       <c r="AM9">
-        <v>0.27884999999999999</v>
+        <v>0.68869999999999998</v>
       </c>
       <c r="AN9">
-        <v>0.50319999999999998</v>
+        <v>0.59245000000000003</v>
       </c>
       <c r="AO9">
-        <v>0.66935</v>
+        <v>0.25495000000000001</v>
       </c>
       <c r="AP9">
-        <v>0.39345000000000002</v>
+        <v>0.31540000000000001</v>
       </c>
       <c r="AQ9">
-        <v>0.34200000000000003</v>
+        <v>0.40699999999999997</v>
       </c>
       <c r="AR9">
-        <v>0.74280000000000002</v>
+        <v>0.58214999999999995</v>
       </c>
       <c r="AS9">
-        <v>0.86134999999999995</v>
+        <v>0.71050000000000002</v>
       </c>
       <c r="AT9">
-        <v>0.75800000000000001</v>
+        <v>0.92979999999999996</v>
       </c>
       <c r="AU9">
-        <v>0.38464999999999999</v>
+        <v>0.2044</v>
       </c>
       <c r="AV9">
-        <v>0.97089999999999999</v>
+        <v>0.53605000000000003</v>
       </c>
       <c r="AW9">
-        <v>0.6169</v>
+        <v>0.2979</v>
       </c>
       <c r="AX9">
-        <v>0.76585000000000003</v>
+        <v>0.13220000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>0.28675</v>
+        <v>0.20349999999999999</v>
       </c>
       <c r="B10">
-        <v>0.47120000000000001</v>
+        <v>0.25635000000000002</v>
       </c>
       <c r="C10">
-        <v>0.4224</v>
+        <v>0.69820000000000004</v>
       </c>
       <c r="D10">
-        <v>0.85860000000000003</v>
+        <v>0.84640000000000004</v>
       </c>
       <c r="E10">
-        <v>0.34289999999999998</v>
+        <v>0.83404999999999996</v>
       </c>
       <c r="F10">
-        <v>0.77839999999999998</v>
+        <v>0.89454999999999996</v>
       </c>
       <c r="G10">
-        <v>2.3349999999999999E-2</v>
+        <v>0.51424999999999998</v>
       </c>
       <c r="H10">
-        <v>0.58035000000000003</v>
+        <v>0.26995000000000002</v>
       </c>
       <c r="I10">
-        <v>0.64300000000000002</v>
+        <v>0.48065000000000002</v>
       </c>
       <c r="J10">
-        <v>0.74019999999999997</v>
+        <v>0.40325</v>
       </c>
       <c r="K10">
-        <v>0.65285000000000004</v>
+        <v>0.4446</v>
       </c>
       <c r="L10">
-        <v>0.29239999999999999</v>
+        <v>0.60155000000000003</v>
       </c>
       <c r="M10">
-        <v>0.66849999999999998</v>
+        <v>0.71799999999999997</v>
       </c>
       <c r="N10">
-        <v>0.68110000000000004</v>
+        <v>0.439</v>
       </c>
       <c r="O10">
-        <v>0.87270000000000003</v>
+        <v>0.46379999999999999</v>
       </c>
       <c r="P10">
-        <v>0.55264999999999997</v>
+        <v>7.0199999999999999E-2</v>
       </c>
       <c r="Q10">
-        <v>0.56564999999999999</v>
+        <v>0.97250000000000003</v>
       </c>
       <c r="R10">
-        <v>0.66100000000000003</v>
+        <v>0.76990000000000003</v>
       </c>
       <c r="S10">
-        <v>0.40679999999999999</v>
+        <v>0.76575000000000004</v>
       </c>
       <c r="T10">
-        <v>0.91869999999999996</v>
+        <v>0.7026</v>
       </c>
       <c r="U10">
-        <v>0.74839999999999995</v>
+        <v>0.91600000000000004</v>
       </c>
       <c r="V10">
-        <v>0.59889999999999999</v>
+        <v>0.61050000000000004</v>
       </c>
       <c r="W10">
-        <v>0.47810000000000002</v>
+        <v>0.75049999999999994</v>
       </c>
       <c r="X10">
-        <v>0.86924999999999997</v>
+        <v>0.77315</v>
       </c>
       <c r="Y10">
-        <v>0.41799999999999998</v>
+        <v>0.29444999999999999</v>
       </c>
       <c r="Z10">
-        <v>0.57665</v>
+        <v>0.53910000000000002</v>
       </c>
       <c r="AA10">
-        <v>0.55449999999999999</v>
+        <v>0.4032</v>
       </c>
       <c r="AB10">
-        <v>0.28675</v>
+        <v>0.72635000000000005</v>
       </c>
       <c r="AC10">
-        <v>0.89905000000000002</v>
+        <v>0.70669999999999999</v>
       </c>
       <c r="AD10">
-        <v>0.56045</v>
+        <v>0.53900000000000003</v>
       </c>
       <c r="AE10">
-        <v>0.35635</v>
+        <v>0.54969999999999997</v>
       </c>
       <c r="AF10">
-        <v>0.68510000000000004</v>
+        <v>0.35425000000000001</v>
       </c>
       <c r="AG10">
-        <v>0.94730000000000003</v>
+        <v>0.44145000000000001</v>
       </c>
       <c r="AH10">
-        <v>0.1278</v>
+        <v>0.37280000000000002</v>
       </c>
       <c r="AI10">
-        <v>0.63829999999999998</v>
+        <v>0.59919999999999995</v>
       </c>
       <c r="AJ10">
-        <v>0.75280000000000002</v>
+        <v>0.50080000000000002</v>
       </c>
       <c r="AK10">
-        <v>0.77959999999999996</v>
+        <v>0.1014</v>
       </c>
       <c r="AL10">
-        <v>0.79854999999999998</v>
+        <v>0.29110000000000003</v>
       </c>
       <c r="AM10">
-        <v>0.44450000000000001</v>
+        <v>0.78159999999999996</v>
       </c>
       <c r="AN10">
-        <v>0.4783</v>
+        <v>0.78369999999999995</v>
       </c>
       <c r="AO10">
-        <v>0.62309999999999999</v>
+        <v>0.16209999999999999</v>
       </c>
       <c r="AP10">
-        <v>0.48104999999999998</v>
+        <v>0.55464999999999998</v>
       </c>
       <c r="AQ10">
-        <v>0.32655000000000001</v>
+        <v>0.46089999999999998</v>
       </c>
       <c r="AR10">
-        <v>0.69889999999999997</v>
+        <v>0.43745000000000001</v>
       </c>
       <c r="AS10">
-        <v>0.81040000000000001</v>
+        <v>0.43554999999999999</v>
       </c>
       <c r="AT10">
-        <v>0.78095000000000003</v>
+        <v>0.87670000000000003</v>
       </c>
       <c r="AU10">
-        <v>0.3861</v>
+        <v>0.2064</v>
       </c>
       <c r="AV10">
-        <v>0.8579</v>
+        <v>0.49209999999999998</v>
       </c>
       <c r="AW10">
-        <v>0.45255000000000001</v>
+        <v>0.4753</v>
       </c>
       <c r="AX10">
-        <v>0.60570000000000002</v>
+        <v>0.11285000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>0.159</v>
+        <v>0.59989999999999999</v>
       </c>
       <c r="B11">
-        <v>0.2888</v>
+        <v>0.69469999999999998</v>
       </c>
       <c r="C11">
-        <v>0.12379999999999999</v>
+        <v>0.67054999999999998</v>
       </c>
       <c r="D11">
-        <v>0.72194999999999998</v>
+        <v>0.62029999999999996</v>
       </c>
       <c r="E11">
-        <v>0.50570000000000004</v>
+        <v>0.76849999999999996</v>
       </c>
       <c r="F11">
-        <v>0.63190000000000002</v>
+        <v>0.83979999999999999</v>
       </c>
       <c r="G11">
-        <v>2.0049999999999998E-2</v>
+        <v>0.54679999999999995</v>
       </c>
       <c r="H11">
-        <v>0.38605</v>
+        <v>0.47449999999999998</v>
       </c>
       <c r="I11">
-        <v>0.52695000000000003</v>
+        <v>0.65790000000000004</v>
       </c>
       <c r="J11">
-        <v>0.66979999999999995</v>
+        <v>0.50470000000000004</v>
       </c>
       <c r="K11">
-        <v>0.58504999999999996</v>
+        <v>0.56515000000000004</v>
       </c>
       <c r="L11">
-        <v>0.43940000000000001</v>
+        <v>0.35975000000000001</v>
       </c>
       <c r="M11">
-        <v>0.63919999999999999</v>
+        <v>0.76949999999999996</v>
       </c>
       <c r="N11">
-        <v>0.69810000000000005</v>
+        <v>0.49769999999999998</v>
       </c>
       <c r="O11">
-        <v>0.7833</v>
+        <v>0.43730000000000002</v>
       </c>
       <c r="P11">
-        <v>0.58250000000000002</v>
+        <v>0.15545</v>
       </c>
       <c r="Q11">
-        <v>0.48799999999999999</v>
+        <v>0.96914999999999996</v>
       </c>
       <c r="R11">
-        <v>0.63844999999999996</v>
+        <v>0.82279999999999998</v>
       </c>
       <c r="S11">
-        <v>0.48535</v>
+        <v>0.72019999999999995</v>
       </c>
       <c r="T11">
-        <v>0.77649999999999997</v>
+        <v>0.6784</v>
       </c>
       <c r="U11">
-        <v>0.87695000000000001</v>
+        <v>0.96140000000000003</v>
       </c>
       <c r="V11">
-        <v>0.4133</v>
+        <v>0.64915</v>
       </c>
       <c r="W11">
-        <v>0.52815000000000001</v>
+        <v>0.69220000000000004</v>
       </c>
       <c r="X11">
-        <v>0.73185</v>
+        <v>0.68820000000000003</v>
       </c>
       <c r="Y11">
-        <v>0.58399999999999996</v>
+        <v>0.17055000000000001</v>
       </c>
       <c r="Z11">
-        <v>0.69679999999999997</v>
+        <v>0.71850000000000003</v>
       </c>
       <c r="AA11">
-        <v>0.72289999999999999</v>
+        <v>0.2268</v>
       </c>
       <c r="AB11">
-        <v>0.37154999999999999</v>
+        <v>0.56179999999999997</v>
       </c>
       <c r="AC11">
-        <v>0.76200000000000001</v>
+        <v>0.70189999999999997</v>
       </c>
       <c r="AD11">
-        <v>0.39915</v>
+        <v>0.72099999999999997</v>
       </c>
       <c r="AE11">
-        <v>0.39800000000000002</v>
+        <v>0.50919999999999999</v>
       </c>
       <c r="AF11">
-        <v>0.60729999999999995</v>
+        <v>0.30120000000000002</v>
       </c>
       <c r="AG11">
-        <v>0.94379999999999997</v>
+        <v>0.48409999999999997</v>
       </c>
       <c r="AH11">
-        <v>0.11225</v>
+        <v>0.53505000000000003</v>
       </c>
       <c r="AI11">
-        <v>0.54654999999999998</v>
+        <v>0.58340000000000003</v>
       </c>
       <c r="AJ11">
-        <v>0.65815000000000001</v>
+        <v>0.32984999999999998</v>
       </c>
       <c r="AK11">
-        <v>0.67649999999999999</v>
+        <v>0.03</v>
       </c>
       <c r="AL11">
-        <v>0.7954</v>
+        <v>0.59540000000000004</v>
       </c>
       <c r="AM11">
-        <v>0.42180000000000001</v>
+        <v>0.89129999999999998</v>
       </c>
       <c r="AN11">
-        <v>0.33139999999999997</v>
+        <v>0.72335000000000005</v>
       </c>
       <c r="AO11">
-        <v>0.57055</v>
+        <v>0.33784999999999998</v>
       </c>
       <c r="AP11">
-        <v>0.46405000000000002</v>
+        <v>0.63924999999999998</v>
       </c>
       <c r="AQ11">
-        <v>0.23885000000000001</v>
+        <v>0.7843</v>
       </c>
       <c r="AR11">
-        <v>0.75380000000000003</v>
+        <v>0.33040000000000003</v>
       </c>
       <c r="AS11">
-        <v>0.67390000000000005</v>
+        <v>0.58520000000000005</v>
       </c>
       <c r="AT11">
-        <v>0.81310000000000004</v>
+        <v>0.82169999999999999</v>
       </c>
       <c r="AU11">
-        <v>0.41449999999999998</v>
+        <v>0.2097</v>
       </c>
       <c r="AV11">
-        <v>0.85289999999999999</v>
+        <v>0.55774999999999997</v>
       </c>
       <c r="AW11">
-        <v>0.52985000000000004</v>
+        <v>0.46165</v>
       </c>
       <c r="AX11">
-        <v>0.54195000000000004</v>
+        <v>5.5899999999999998E-2</v>
       </c>
     </row>
   </sheetData>
